--- a/Electrical/Analysis+Design/ComponentSelection.xlsx
+++ b/Electrical/Analysis+Design/ComponentSelection.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdorsay\Documents\GitHub\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Stephen\Github\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86A72EC-B360-4347-A44B-B7FCF02C742E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11025" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModFilters" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
   <externalReferences>
     <externalReference r:id="rId13"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Stephen</author>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="209">
   <si>
     <t>MPN</t>
   </si>
@@ -708,17 +712,38 @@
   </si>
   <si>
     <t>TC1-1-13+</t>
+  </si>
+  <si>
+    <t>GRF7001</t>
+  </si>
+  <si>
+    <t>Guerrilla RF</t>
+  </si>
+  <si>
+    <t>GRF5021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3350BP39A0500 </t>
+  </si>
+  <si>
+    <t>MOQ 60,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA2697AA3117   </t>
+  </si>
+  <si>
+    <t>Taisaw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -797,7 +822,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -842,13 +867,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -873,9 +909,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,8 +927,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,19 +1004,19 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,7 +1049,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,13 +1064,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1075,7 +1119,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1152,7 +1202,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1225,7 +1281,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BED5A3C2-2ABF-4E37-B656-EED1255D242A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED5A3C2-2ABF-4E37-B656-EED1255D242A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,7 +1358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1379,7 +1441,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9C2930-A4B1-4DD7-94FB-E110D85BF491}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9C2930-A4B1-4DD7-94FB-E110D85BF491}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,11 +1838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,11 +1856,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -2044,14 +2106,84 @@
         <v>138</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="77">
+        <v>3100</v>
+      </c>
+      <c r="H10" s="77">
+        <v>3600</v>
+      </c>
+      <c r="I10" s="77">
+        <v>2</v>
+      </c>
+      <c r="J10" s="77">
+        <v>15</v>
+      </c>
+      <c r="K10" s="77">
+        <v>70</v>
+      </c>
+      <c r="L10" s="77">
+        <v>30</v>
+      </c>
+      <c r="M10" s="75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="77">
+        <v>2700</v>
+      </c>
+      <c r="H11" s="77">
+        <v>2900</v>
+      </c>
+      <c r="I11" s="77">
+        <v>3.5</v>
+      </c>
+      <c r="J11" s="77">
+        <v>12</v>
+      </c>
+      <c r="K11" s="77">
+        <v>35</v>
+      </c>
+      <c r="L11" s="77">
+        <v>35</v>
+      </c>
+    </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
@@ -2244,11 +2376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,11 +2400,11 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2793,11 +2925,52 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="76">
+        <v>3.86</v>
+      </c>
+      <c r="D16" s="76">
+        <v>3.67</v>
+      </c>
+      <c r="E16" s="76">
+        <v>3.38</v>
+      </c>
+      <c r="F16" s="77">
+        <v>15.5</v>
+      </c>
+      <c r="G16" s="77">
+        <v>0.52</v>
+      </c>
+      <c r="H16" s="77">
+        <v>16</v>
+      </c>
+      <c r="I16" s="77">
+        <v>21</v>
+      </c>
+      <c r="J16" s="77">
+        <v>21.2</v>
+      </c>
+      <c r="K16" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="77">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="M16" s="77">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:G15">
+  <conditionalFormatting sqref="G4:G16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
@@ -2808,7 +2981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2822,11 +2995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,11 +3014,11 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2930,13 +3103,13 @@
       <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="69">
         <v>22.8</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="69">
         <v>21.030999999999999</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E4" s="69">
         <v>20.0442</v>
       </c>
       <c r="F4" s="26">
@@ -3002,11 +3175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,11 +3198,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
       <c r="H3" s="59"/>
@@ -3315,11 +3488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,11 +3505,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3569,11 +3742,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -3713,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3730,11 +3903,11 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3906,11 +4079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3933,24 +4106,24 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="71"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -4817,16 +4990,16 @@
       <c r="F22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="70">
         <v>400</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="70">
         <v>6000</v>
       </c>
-      <c r="I22" s="74">
+      <c r="I22" s="70">
         <v>400</v>
       </c>
-      <c r="J22" s="74">
+      <c r="J22" s="70">
         <v>6000</v>
       </c>
       <c r="K22" s="7">
@@ -4850,9 +5023,39 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>203</v>
+      </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4000</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4000</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>4000</v>
+      </c>
+      <c r="O23">
+        <v>7.1</v>
+      </c>
+      <c r="P23">
+        <v>-8</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C24" s="12"/>
@@ -4941,7 +5144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4983,7 +5186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5004,28 +5207,28 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="R2" s="72"/>
+      <c r="R2" s="74"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -5637,7 +5840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5655,25 +5858,25 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="70"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -5768,7 +5971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5789,28 +5992,28 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">

--- a/Electrical/Analysis+Design/ComponentSelection.xlsx
+++ b/Electrical/Analysis+Design/ComponentSelection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Stephen\Github\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86A72EC-B360-4347-A44B-B7FCF02C742E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06458AEC-1201-4FAB-A595-2BF7078D0D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="3630" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModFilters" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="212">
   <si>
     <t>MPN</t>
   </si>
@@ -733,6 +733,15 @@
   </si>
   <si>
     <t>Taisaw</t>
+  </si>
+  <si>
+    <t>ADG904</t>
+  </si>
+  <si>
+    <t>PE42440</t>
+  </si>
+  <si>
+    <t>pSemi</t>
   </si>
 </sst>
 </file>
@@ -884,7 +893,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1052,6 +1061,14 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,14 +1081,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1842,7 +1852,7 @@
   <dimension ref="A3:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,11 +1866,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -2107,83 +2117,87 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="11">
         <v>3100</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="11">
         <v>3600</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="11">
         <v>2</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="11">
         <v>15</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="11">
         <v>70</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="11">
         <v>30</v>
       </c>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="11">
         <v>2700</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="11">
         <v>2900</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="11">
         <v>3.5</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="11">
         <v>12</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="11">
         <v>35</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="11">
         <v>35</v>
       </c>
+      <c r="M11" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
@@ -2380,7 +2394,7 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,11 +2414,11 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2926,43 +2940,43 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="76">
+      <c r="C16" s="72">
         <v>3.86</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="72">
         <v>3.67</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="72">
         <v>3.38</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="73">
         <v>15.5</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="73">
         <v>0.52</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="73">
         <v>16</v>
       </c>
-      <c r="I16" s="77">
+      <c r="I16" s="73">
         <v>21</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="73">
         <v>21.2</v>
       </c>
-      <c r="K16" s="78" t="s">
+      <c r="K16" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="L16" s="77">
+      <c r="L16" s="73">
         <v>39.299999999999997</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="73">
         <v>20</v>
       </c>
     </row>
@@ -2998,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,11 +3028,11 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3097,72 +3111,72 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="79">
         <v>22.8</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="79">
         <v>21.030999999999999</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="79">
         <v>20.0442</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="63">
         <v>10</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="63">
         <v>2</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="63">
         <v>9.5</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="63">
         <v>100</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="63">
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="69">
         <v>35.729999999999997</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="69">
         <v>32.954999999999998</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="69">
         <v>26.845099999999999</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="26">
         <v>10</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="26">
         <v>2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="26">
         <v>9.9</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="26">
         <v>105</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3198,11 +3212,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
       <c r="H3" s="59"/>
@@ -3492,7 +3506,7 @@
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,11 +3519,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3742,11 +3756,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -3790,37 +3804,69 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
+      <c r="A17" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="G17" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="11">
+        <v>60</v>
+      </c>
+      <c r="I17" s="11">
+        <v>27</v>
+      </c>
+      <c r="J17" s="11">
+        <v>22</v>
+      </c>
+      <c r="K17" s="11">
+        <v>10</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.1</v>
+      </c>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
+      <c r="A18" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="G18" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="11">
+        <v>40</v>
+      </c>
+      <c r="I18" s="11">
+        <v>27</v>
+      </c>
+      <c r="J18" s="11">
+        <v>27</v>
+      </c>
+      <c r="K18" s="11">
+        <v>2000</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.1</v>
+      </c>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3903,11 +3949,11 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4082,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4106,24 +4152,24 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="73"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -5023,10 +5069,10 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="71" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="12"/>
@@ -5190,7 +5236,7 @@
   <dimension ref="A2:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5207,28 +5253,28 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="R2" s="74"/>
+      <c r="R2" s="78"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -5858,25 +5904,25 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="72"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -5992,28 +6038,28 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">

--- a/Electrical/Analysis+Design/ComponentSelection.xlsx
+++ b/Electrical/Analysis+Design/ComponentSelection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Stephen\Github\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Documents\GitHub\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06458AEC-1201-4FAB-A595-2BF7078D0D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A4526-87DE-4D56-A3B7-6E79389FA7E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="3630" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModFilters" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -106,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="219">
   <si>
     <t>MPN</t>
   </si>
@@ -720,9 +719,6 @@
     <t>Guerrilla RF</t>
   </si>
   <si>
-    <t>GRF5021</t>
-  </si>
-  <si>
     <t xml:space="preserve">3350BP39A0500 </t>
   </si>
   <si>
@@ -742,6 +738,30 @@
   </si>
   <si>
     <t>pSemi</t>
+  </si>
+  <si>
+    <t>GRF2051</t>
+  </si>
+  <si>
+    <t>GRF4004</t>
+  </si>
+  <si>
+    <t>GRF4005</t>
+  </si>
+  <si>
+    <t>GRF4003</t>
+  </si>
+  <si>
+    <t>GRF5010</t>
+  </si>
+  <si>
+    <t>GRF5020</t>
+  </si>
+  <si>
+    <t>GRF5040</t>
+  </si>
+  <si>
+    <t>GRF5511</t>
   </si>
 </sst>
 </file>
@@ -797,13 +817,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -818,6 +831,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -950,36 +969,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,26 +1013,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1021,54 +1024,51 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,7 +1081,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1866,11 +1885,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -2039,43 +2058,43 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="55">
         <v>4.95</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="55">
         <v>4.55</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="55">
         <v>2000</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="55">
         <v>3220</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="55">
         <v>1.2</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="55">
         <v>24</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="55">
         <v>30</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="55">
         <v>34</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="54" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2118,7 +2137,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>142</v>
@@ -2154,15 +2173,15 @@
         <v>30</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2191,21 +2210,21 @@
       <c r="M11" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="76" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -2394,7 +2413,7 @@
   <dimension ref="A2:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A3" sqref="A2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,18 +2433,18 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2468,7 +2487,7 @@
       <c r="L3" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="45" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2479,13 +2498,13 @@
       <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="46">
         <v>15.92</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="46">
         <v>12.2</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="46">
         <v>9.5299999999999994</v>
       </c>
       <c r="F4" s="9">
@@ -2520,13 +2539,13 @@
       <c r="B5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="47">
         <v>6.86</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="47">
         <v>5.25</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="47">
         <v>4.0999999999999996</v>
       </c>
       <c r="F5" s="28">
@@ -2559,13 +2578,13 @@
       <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="46">
         <v>2.02</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="46">
         <v>1.4875</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="46">
         <v>1.3888640000000001</v>
       </c>
       <c r="F6" s="9">
@@ -2596,13 +2615,13 @@
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="46">
         <v>2.4308999999999998</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="46">
         <v>2.0872730000000002</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="46">
         <v>1.9615910000000001</v>
       </c>
       <c r="F7" s="9">
@@ -2633,13 +2652,13 @@
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="46">
         <v>3.6018180000000002</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="46">
         <v>3.092727</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="46">
         <v>2.9065910000000001</v>
       </c>
       <c r="F8" s="9">
@@ -2664,41 +2683,41 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49">
         <v>3.99</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="49">
         <v>3.46</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="50">
         <v>28.5</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="50">
         <v>0.7</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="50">
         <v>10</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="50">
         <v>39</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="50">
         <v>14.8</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="50">
         <v>27.8</v>
       </c>
-      <c r="M9" s="58">
+      <c r="M9" s="52">
         <v>10</v>
       </c>
     </row>
@@ -2709,11 +2728,11 @@
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46">
         <v>2.85</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="46">
         <v>2.39</v>
       </c>
       <c r="F10" s="9">
@@ -2749,11 +2768,11 @@
       <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46">
         <v>11.95</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="46">
         <v>8.9499999999999993</v>
       </c>
       <c r="F11" s="9">
@@ -2782,43 +2801,43 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="49">
         <v>9.19</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="49">
         <v>8.2010000000000005</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="49">
         <v>6.7244999999999999</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="50">
         <v>21</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="50">
         <v>0.8</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="50">
         <v>15</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="50">
         <v>35</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="50">
         <v>17</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="50">
         <v>34</v>
       </c>
-      <c r="M12" s="58">
+      <c r="M12" s="52">
         <v>19</v>
       </c>
     </row>
@@ -2940,43 +2959,43 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="77">
         <v>3.86</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="77">
         <v>3.67</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="77">
         <v>3.38</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="78">
         <v>15.5</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="78">
         <v>0.52</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="78">
         <v>16</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="78">
         <v>21</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="78">
         <v>21.2</v>
       </c>
-      <c r="K16" s="74" t="s">
+      <c r="K16" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="L16" s="73">
+      <c r="L16" s="78">
         <v>39.299999999999997</v>
       </c>
-      <c r="M16" s="73">
+      <c r="M16" s="78">
         <v>20</v>
       </c>
     </row>
@@ -2996,14 +3015,138 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="10" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="66">
+        <v>1</v>
+      </c>
+      <c r="D3" s="66">
+        <v>10</v>
+      </c>
+      <c r="E3" s="66">
+        <v>100</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3012,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,11 +3171,11 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3111,37 +3254,37 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="67">
         <v>22.8</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="67">
         <v>21.030999999999999</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="67">
         <v>20.0442</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="57">
         <v>10</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="57">
         <v>2</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="57">
         <v>9.5</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="57">
         <v>100</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="57">
         <v>1.5</v>
       </c>
     </row>
@@ -3152,13 +3295,13 @@
       <c r="B5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="63">
         <v>35.729999999999997</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="63">
         <v>32.954999999999998</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="63">
         <v>26.845099999999999</v>
       </c>
       <c r="F5" s="26">
@@ -3210,21 +3353,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="76" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3268,35 +3411,35 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="34" t="s">
         <v>143</v>
       </c>
       <c r="G5" s="34">
         <v>320</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="58">
         <v>0.3</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="58">
         <v>20</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="58">
         <v>47</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="58">
         <v>25</v>
       </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -3416,10 +3559,10 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="28">
@@ -3448,7 +3591,7 @@
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="60" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3490,7 +3633,7 @@
       <c r="M10" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3519,11 +3662,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3602,43 +3745,43 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="55">
         <v>2.92</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="55">
         <v>2.62</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="55">
         <v>2.11</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="55">
         <v>0.6</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="55">
         <v>45</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="55">
         <v>25</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="55">
         <v>27</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="55">
         <v>265</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="55">
         <v>0.1</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="55" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3756,11 +3899,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -3805,7 +3948,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>95</v>
@@ -3838,10 +3981,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -3949,11 +4092,11 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3993,34 +4136,34 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="62">
         <v>7.02</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="62">
         <v>6.2629999999999999</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="62">
         <v>5.1357999999999997</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="55">
         <v>0.35</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="55">
         <v>48</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="55">
         <v>20</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="55">
         <v>1</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="55">
         <v>0.5</v>
       </c>
     </row>
@@ -4152,24 +4295,24 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="77"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -5036,16 +5179,16 @@
       <c r="F22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="64">
         <v>400</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="64">
         <v>6000</v>
       </c>
-      <c r="I22" s="70">
+      <c r="I22" s="64">
         <v>400</v>
       </c>
-      <c r="J22" s="70">
+      <c r="J22" s="64">
         <v>6000</v>
       </c>
       <c r="K22" s="7">
@@ -5069,10 +5212,10 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="65" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="12"/>
@@ -5236,7 +5379,7 @@
   <dimension ref="A2:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5253,28 +5396,28 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="R2" s="78"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -5777,60 +5920,60 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="72">
         <f>26.48+VCO!D6</f>
         <v>55.43</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="72">
         <f>24.334+VCO!D6</f>
         <v>53.283999999999999</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="72">
         <f>20.5507+VCO!E6</f>
         <v>43.000699999999995</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45">
+      <c r="F13" s="55"/>
+      <c r="G13" s="73">
         <v>500</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="74">
         <v>13000</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44">
+      <c r="J13" s="55"/>
+      <c r="K13" s="55">
         <v>-90</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="55">
         <v>-100</v>
       </c>
-      <c r="M13" s="44">
+      <c r="M13" s="55">
         <v>-95</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="55">
         <v>-110</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="55">
         <f>[1]VCO!N6</f>
         <v>0.82</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="55">
         <f>[1]VCO!O6*1000</f>
         <v>5400</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="55">
         <f>[1]VCO!P6</f>
         <v>30</v>
       </c>
-      <c r="R13" s="44">
+      <c r="R13" s="55">
         <f>[1]VCO!Q6</f>
         <v>32</v>
       </c>
@@ -5904,25 +6047,25 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="76"/>
+      <c r="O2" s="69"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -6021,7 +6164,7 @@
   <dimension ref="A2:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6038,28 +6181,28 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -6139,7 +6282,7 @@
       <c r="G4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="42" t="s">
         <v>117</v>
       </c>
       <c r="I4" s="9"/>
@@ -6222,11 +6365,11 @@
       <c r="B6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43">
         <v>28.95</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="43">
         <v>22.45</v>
       </c>
       <c r="F6" s="28" t="s">

--- a/Electrical/Analysis+Design/ComponentSelection.xlsx
+++ b/Electrical/Analysis+Design/ComponentSelection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Documents\GitHub\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Stephen\Github\3GHz_Pulse_Radar\Electrical\Analysis+Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200A4526-87DE-4D56-A3B7-6E79389FA7E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42799F4-CBCA-4ABC-9AC8-E4D891F5E5EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="2655" windowWidth="16590" windowHeight="12270" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModFilters" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="225">
   <si>
     <t>MPN</t>
   </si>
@@ -762,17 +762,36 @@
   </si>
   <si>
     <t>GRF5511</t>
+  </si>
+  <si>
+    <t>TQP7M9103</t>
+  </si>
+  <si>
+    <t>TQP7M9102</t>
+  </si>
+  <si>
+    <t>ADL5542</t>
+  </si>
+  <si>
+    <t>Psat (dBm)</t>
+  </si>
+  <si>
+    <t>Idd (mA)</t>
+  </si>
+  <si>
+    <t>HMC327</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -907,12 +926,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1072,15 +1092,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1101,9 +1112,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -1885,11 +1919,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -2212,11 +2246,11 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -2433,11 +2467,11 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2959,43 +2993,43 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="74">
         <v>3.86</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="74">
         <v>3.67</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="74">
         <v>3.38</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="75">
         <v>15.5</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="75">
         <v>0.52</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="75">
         <v>16</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="75">
         <v>21</v>
       </c>
-      <c r="J16" s="78">
+      <c r="J16" s="75">
         <v>21.2</v>
       </c>
-      <c r="K16" s="79" t="s">
+      <c r="K16" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="L16" s="78">
+      <c r="L16" s="75">
         <v>39.299999999999997</v>
       </c>
-      <c r="M16" s="78">
+      <c r="M16" s="75">
         <v>20</v>
       </c>
     </row>
@@ -3015,27 +3049,33 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A2:M10"/>
+  <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="10" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3043,9 +3083,11 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
@@ -3082,64 +3124,439 @@
       <c r="L3" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" s="45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="77">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D7" s="77">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7" s="77">
+        <v>3.77</v>
+      </c>
+      <c r="F7" s="82">
+        <v>16</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="82">
+        <v>10</v>
+      </c>
+      <c r="I7" s="82">
+        <v>23</v>
+      </c>
+      <c r="J7" s="82">
+        <v>28.5</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="9">
+        <v>45</v>
+      </c>
+      <c r="M7" s="9">
+        <v>28.5</v>
+      </c>
+      <c r="N7" s="9">
+        <v>95</v>
+      </c>
+      <c r="O7" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="77">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D8" s="77">
+        <v>4.62</v>
+      </c>
+      <c r="E8" s="77">
+        <v>4.25</v>
+      </c>
+      <c r="F8" s="82">
+        <v>18</v>
+      </c>
+      <c r="G8" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="82">
+        <v>9</v>
+      </c>
+      <c r="I8" s="82">
+        <v>23</v>
+      </c>
+      <c r="J8" s="82">
+        <v>29</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" s="9">
+        <v>43</v>
+      </c>
+      <c r="M8" s="9">
+        <v>30.5</v>
+      </c>
+      <c r="N8" s="9">
+        <v>125</v>
+      </c>
+      <c r="O8" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="77">
+        <v>5.63</v>
+      </c>
+      <c r="D9" s="77">
+        <v>5.35</v>
+      </c>
+      <c r="E9" s="77">
+        <v>4.93</v>
+      </c>
+      <c r="F9" s="82">
+        <v>13</v>
+      </c>
+      <c r="G9" s="82">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="82">
+        <v>20</v>
+      </c>
+      <c r="I9" s="82">
+        <v>20</v>
+      </c>
+      <c r="J9" s="82">
+        <v>29.8</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="9">
+        <v>46.3</v>
+      </c>
+      <c r="M9" s="9">
+        <v>26</v>
+      </c>
+      <c r="N9" s="9">
+        <v>130</v>
+      </c>
+      <c r="O9" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>203</v>
+      </c>
+      <c r="C10" s="77">
+        <v>4.2</v>
+      </c>
+      <c r="D10" s="77">
+        <v>3.99</v>
+      </c>
+      <c r="E10" s="77">
+        <v>3.67</v>
+      </c>
+      <c r="F10" s="82">
+        <v>20</v>
+      </c>
+      <c r="G10" s="82">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="83">
+        <v>10</v>
+      </c>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82">
+        <v>26</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="9">
+        <v>39.6</v>
+      </c>
+      <c r="M10" s="84">
+        <v>27</v>
+      </c>
+      <c r="N10" s="84">
+        <v>130</v>
+      </c>
+      <c r="O10" s="84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="77">
+        <v>11.11</v>
+      </c>
+      <c r="D11" s="77">
+        <v>11.11</v>
+      </c>
+      <c r="E11" s="77">
+        <v>6.65</v>
+      </c>
+      <c r="F11" s="83">
+        <v>14.5</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82">
+        <v>11</v>
+      </c>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82">
+        <v>26.2</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="9">
+        <v>45</v>
+      </c>
+      <c r="M11" s="84">
+        <v>27</v>
+      </c>
+      <c r="N11" s="84">
+        <v>135</v>
+      </c>
+      <c r="O11" s="84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="77">
+        <v>15.24</v>
+      </c>
+      <c r="D12" s="77">
+        <v>15.24</v>
+      </c>
+      <c r="E12" s="77">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F12" s="83">
+        <v>13.5</v>
+      </c>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83">
+        <v>16</v>
+      </c>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82">
+        <v>29.2</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12" s="9">
+        <v>40</v>
+      </c>
+      <c r="M12" s="84">
+        <v>30</v>
+      </c>
+      <c r="N12" s="84">
+        <v>235</v>
+      </c>
+      <c r="O12" s="84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="77">
+        <v>6.28</v>
+      </c>
+      <c r="D13" s="77">
+        <v>5.6059999999999999</v>
+      </c>
+      <c r="E13" s="77">
+        <v>4.5964999999999998</v>
+      </c>
+      <c r="F13" s="82">
+        <v>17.5</v>
+      </c>
+      <c r="G13" s="82">
+        <v>3.7</v>
+      </c>
+      <c r="H13" s="82">
+        <v>10</v>
+      </c>
+      <c r="I13" s="82">
+        <v>22</v>
+      </c>
+      <c r="J13" s="82">
+        <v>13.7</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="9">
+        <v>33</v>
+      </c>
+      <c r="M13" s="84">
+        <v>15</v>
+      </c>
+      <c r="N13" s="84">
+        <v>93</v>
+      </c>
+      <c r="O13" s="84"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="77">
+        <v>23.58</v>
+      </c>
+      <c r="D14" s="77">
+        <v>21.33</v>
+      </c>
+      <c r="E14" s="77">
+        <v>17.97</v>
+      </c>
+      <c r="F14" s="82">
+        <v>21</v>
+      </c>
+      <c r="G14" s="83">
+        <v>5</v>
+      </c>
+      <c r="H14" s="82">
+        <v>8</v>
+      </c>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82">
+        <v>27</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="9">
+        <v>40</v>
+      </c>
+      <c r="M14" s="84">
+        <v>30</v>
+      </c>
+      <c r="N14" s="84">
+        <v>250</v>
+      </c>
+      <c r="O14" s="84">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3171,11 +3588,11 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3355,11 +3772,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
       <c r="B3" s="53"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="53"/>
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
@@ -3662,11 +4079,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3899,11 +4316,11 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
     </row>
     <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -4092,11 +4509,11 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4295,24 +4712,24 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70" t="s">
+      <c r="H2" s="80"/>
+      <c r="I2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="70"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -5396,28 +5813,28 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="R2" s="71"/>
+      <c r="R2" s="81"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -5926,26 +6343,26 @@
       <c r="B13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="69">
         <f>26.48+VCO!D6</f>
         <v>55.43</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="69">
         <f>24.334+VCO!D6</f>
         <v>53.283999999999999</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="69">
         <f>20.5507+VCO!E6</f>
         <v>43.000699999999995</v>
       </c>
       <c r="F13" s="55"/>
-      <c r="G13" s="73">
+      <c r="G13" s="70">
         <v>500</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="71">
         <v>13000</v>
       </c>
-      <c r="I13" s="75" t="s">
+      <c r="I13" s="72" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="55"/>
@@ -6047,25 +6464,25 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="69"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -6181,28 +6598,28 @@
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
     </row>
     <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
